--- a/Sample_Excel2.xlsx
+++ b/Sample_Excel2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A41DCA-2D34-4943-B3F0-1AD77599BF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE6AB1A-E6B0-45CD-8457-F37E389DA4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0869BE11-3D0A-4E53-A933-DAEC893D3717}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>CMIS ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>AF0000000</t>
   </si>
   <si>
-    <t>Nibedan</t>
-  </si>
-  <si>
     <t>Ho</t>
   </si>
   <si>
@@ -73,16 +70,85 @@
   </si>
   <si>
     <t>Call</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>AF0000001</t>
+  </si>
+  <si>
+    <t>AF0000002</t>
+  </si>
+  <si>
+    <t>AF0000003</t>
+  </si>
+  <si>
+    <t>AF0000004</t>
+  </si>
+  <si>
+    <t>AF0000005</t>
+  </si>
+  <si>
+    <t>AF0000006</t>
+  </si>
+  <si>
+    <t>AF0000007</t>
+  </si>
+  <si>
+    <t>AF0000008</t>
+  </si>
+  <si>
+    <t>AF0000009</t>
+  </si>
+  <si>
+    <t>AF0000010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,11 +490,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C9FC4-CB49-4B2E-8DB3-09E95793581E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -458,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -469,25 +533,256 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>9083387648</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>9083387648</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>9083387648</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>9083387648</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>9083387648</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>9083387648</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>9083387648</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>9083387648</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>9083387648</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>9083387648</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>9083387648</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
